--- a/AGS报销明细表格.xlsx
+++ b/AGS报销明细表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>费 用 报 销 明 细</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -209,6 +209,10 @@
   <si>
     <t>□无    □有，随行人员：</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈实</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -575,6 +579,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,15 +618,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,21 +649,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1033,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1357,132 +1361,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="21" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="23"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1494,13 +1500,13 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1512,10 +1518,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="32"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1538,7 +1544,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="33"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1565,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1586,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1607,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1649,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1670,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1712,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1733,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1750,7 +1756,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
@@ -1838,10 +1844,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1859,10 +1865,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -1880,10 +1886,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="11">
         <f t="shared" ref="C26:N26" si="1">SUM(C9:C25)</f>
         <v>0</v>
@@ -1969,6 +1975,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A9:A18"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C2:D2"/>
@@ -1982,16 +1998,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A9:A18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.23" bottom="0.38" header="0.17" footer="0.27"/>
